--- a/inventory/template.xlsx
+++ b/inventory/template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\TheBlueShip\inventory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B5E5831-893A-4267-A16F-B6AA54BE39C9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F030201-C977-46ED-8E74-523CA23EB884}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F199370C-9952-4BDB-B81B-650F681B2DA7}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="15">
   <si>
     <t>Gerente de ventas</t>
   </si>
@@ -118,7 +118,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -137,11 +137,44 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
@@ -149,6 +182,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -179,7 +215,7 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>590550</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>191667</xdr:rowOff>
+      <xdr:rowOff>182142</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -521,7 +557,7 @@
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="K5" sqref="K5:K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -560,7 +596,7 @@
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
-    <row r="4" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H4" s="3" t="s">
         <v>3</v>
       </c>
@@ -573,8 +609,11 @@
       </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
+      <c r="K5" s="6"/>
     </row>
-    <row r="6" spans="1:11" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:11" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K6" s="7"/>
+    </row>
     <row r="7" spans="1:11" s="4" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>7</v>
@@ -606,9 +645,11 @@
       <c r="J7" s="4" t="s">
         <v>14</v>
       </c>
+      <c r="K7" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>